--- a/StructurePush.xlsx
+++ b/StructurePush.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abekmat\Desktop\Push\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF314DB8-92C2-46AB-B21D-442E97E28776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15B7853-29DB-4792-A934-15AC3551F553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{FC64CD25-FDFE-46BF-990D-9E933D69D7ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FC64CD25-FDFE-46BF-990D-9E933D69D7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="231">
   <si>
     <t>id</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>isMuted</t>
-  </si>
-  <si>
-    <t>VISA</t>
   </si>
   <si>
     <t>Visa Gold</t>
@@ -685,6 +682,54 @@
   </si>
   <si>
     <t>#1231</t>
+  </si>
+  <si>
+    <t>isPushDisabled</t>
+  </si>
+  <si>
+    <t>1) Реализовать запись девайсТокенов</t>
+  </si>
+  <si>
+    <t>2) Возможность включить/выключить пуш отправку</t>
+  </si>
+  <si>
+    <t>Основная карта</t>
+  </si>
+  <si>
+    <t>pseudonym</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>subProductType</t>
+  </si>
+  <si>
+    <t>1) Выключить уведомления по категорий</t>
+  </si>
+  <si>
+    <t>2) Удалить категорию (скрыт из видимости клиента)</t>
+  </si>
+  <si>
+    <t>isDeleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Реализовать ендпоинт для удаления сообщение сокрытие </t>
+  </si>
+  <si>
+    <t>2) Реализовать ендпоинт для поделиться сообщение</t>
+  </si>
+  <si>
+    <t>3) Скопировать  сообщение фронт делает или на бекенде</t>
+  </si>
+  <si>
+    <t>Это для сообщений в указанной категорий</t>
+  </si>
+  <si>
+    <t>при вызове нужно передать категорию пуша и сам ID</t>
+  </si>
+  <si>
+    <t>отдельно или вместе отправлять состояние(настройку) пуш уведомления</t>
   </si>
 </sst>
 </file>
@@ -810,7 +855,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -875,6 +920,9 @@
     <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1197,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2A6BFE-739A-4B3F-8FC9-2CC45DE4BA79}">
   <dimension ref="B2:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P5" activeCellId="2" sqref="P3 P4 P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1217,7 +1265,7 @@
     <col min="13" max="13" width="24.21875" customWidth="1"/>
     <col min="14" max="14" width="19.77734375" customWidth="1"/>
     <col min="15" max="15" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.33203125" customWidth="1"/>
+    <col min="16" max="16" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.77734375" customWidth="1"/>
     <col min="18" max="18" width="17.109375" customWidth="1"/>
     <col min="20" max="20" width="20.6640625" customWidth="1"/>
@@ -1227,47 +1275,52 @@
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="P3" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>225</v>
+      </c>
       <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="2:26" ht="129.6" x14ac:dyDescent="0.3">
@@ -1275,27 +1328,27 @@
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>147</v>
-      </c>
       <c r="F4" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L4" s="16">
         <v>1</v>
@@ -1303,7 +1356,12 @@
       <c r="M4" s="29">
         <v>45447</v>
       </c>
-      <c r="P4" s="6"/>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>226</v>
+      </c>
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="2:26" ht="43.2" x14ac:dyDescent="0.3">
@@ -1311,27 +1369,27 @@
         <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L5" s="16">
         <v>1</v>
@@ -1339,7 +1397,12 @@
       <c r="M5" s="29">
         <v>45447</v>
       </c>
-      <c r="P5" s="6"/>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>227</v>
+      </c>
       <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="2:26" ht="28.8" x14ac:dyDescent="0.3">
@@ -1347,16 +1410,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G6" s="18">
         <v>1</v>
@@ -1364,16 +1427,19 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L6" s="18">
         <v>1</v>
       </c>
       <c r="M6" s="30">
         <v>45447</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -1383,16 +1449,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>147</v>
-      </c>
       <c r="F7" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" s="18">
         <v>1</v>
@@ -1400,16 +1466,19 @@
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L7" s="18">
         <v>1</v>
       </c>
       <c r="M7" s="30">
         <v>45447</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
       </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -1419,33 +1488,36 @@
         <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L8" s="20">
         <v>1</v>
       </c>
       <c r="M8" s="31">
         <v>45447</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -1455,33 +1527,36 @@
         <v>6</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>147</v>
-      </c>
       <c r="F9" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L9" s="20">
         <v>1</v>
       </c>
       <c r="M9" s="31">
         <v>45447</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -1491,31 +1566,34 @@
         <v>7</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J10" s="25"/>
       <c r="K10" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L10" s="23">
         <v>1</v>
       </c>
       <c r="M10" s="27">
         <v>45449</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
       </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -1525,29 +1603,32 @@
         <v>8</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L11" s="23">
         <v>1</v>
       </c>
       <c r="M11" s="27">
         <v>45450</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -1557,33 +1638,36 @@
         <v>9</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L12" s="23">
         <v>1</v>
       </c>
       <c r="M12" s="27">
         <v>45447</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
       </c>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
@@ -1593,13 +1677,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1609,6 +1693,9 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
     </row>
@@ -1617,29 +1704,32 @@
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
       </c>
       <c r="M14" s="8">
         <v>45447</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -1659,29 +1749,32 @@
         <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L15" s="2">
         <v>1</v>
       </c>
       <c r="M15" s="8">
         <v>45447</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -1701,29 +1794,32 @@
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L16" s="2">
         <v>1</v>
       </c>
       <c r="M16" s="8">
         <v>45447</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
@@ -1744,26 +1840,29 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L17" s="2">
         <v>1</v>
       </c>
       <c r="M17" s="8">
         <v>45448</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -1784,26 +1883,29 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L18" s="2">
         <v>1</v>
       </c>
       <c r="M18" s="8">
         <v>45449</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
       </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -1814,20 +1916,20 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L19" s="2">
         <v>1</v>
@@ -1835,10 +1937,13 @@
       <c r="M19" s="8">
         <v>45449</v>
       </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1850,25 +1955,25 @@
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I24" s="14"/>
     </row>
@@ -1877,16 +1982,16 @@
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3">
@@ -1899,19 +2004,19 @@
         <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" s="3">
         <v>5</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H26" s="3">
         <v>3</v>
@@ -1920,7 +2025,7 @@
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1932,16 +2037,16 @@
         <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.3">
@@ -1949,16 +2054,16 @@
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
@@ -1969,13 +2074,13 @@
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
@@ -2037,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42291F36-0546-4ABB-9E86-5A434D49321E}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2047,12 +2152,13 @@
     <col min="3" max="3" width="11.109375" customWidth="1"/>
     <col min="4" max="4" width="13.109375" customWidth="1"/>
     <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
     <col min="13" max="13" width="17.88671875" customWidth="1"/>
     <col min="14" max="14" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.109375" customWidth="1"/>
@@ -2116,7 +2222,10 @@
         <v>11</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
@@ -2138,25 +2247,29 @@
         <v>123123</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="H4" s="2">
         <v>1.24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="M4" t="s">
+        <v>216</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -2180,6 +2293,10 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="M5" t="s">
+        <v>217</v>
+      </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
@@ -2202,6 +2319,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
@@ -2224,6 +2342,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
@@ -2246,10 +2365,13 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="Q8" s="13" t="s">
+        <v>225</v>
+      </c>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
@@ -2268,10 +2390,13 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
+      <c r="Q9" s="13" t="s">
+        <v>228</v>
+      </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
@@ -2290,10 +2415,13 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
+      <c r="Q10" s="13" t="s">
+        <v>229</v>
+      </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
@@ -2312,6 +2440,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -2353,7 +2482,9 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -2364,13 +2495,15 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="Q14" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -2393,29 +2526,38 @@
       <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="6"/>
+      <c r="M15" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+      <c r="O15" s="11" t="s">
+        <v>222</v>
+      </c>
       <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="6" t="s">
+        <v>230</v>
+      </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -2433,32 +2575,39 @@
         <v>123123</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>1</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>0</v>
       </c>
-      <c r="K16" s="8">
+      <c r="L16" s="8">
         <v>45606</v>
       </c>
-      <c r="M16" s="6"/>
+      <c r="M16" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+      <c r="O16" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="12"/>
@@ -2481,7 +2630,8 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="M17" s="6"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -2506,11 +2656,14 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="M18" s="6"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
+      <c r="Q18" s="6" t="s">
+        <v>222</v>
+      </c>
       <c r="R18" s="6"/>
       <c r="S18" s="13"/>
       <c r="T18" s="6"/>
@@ -2531,11 +2684,14 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="M19" s="6"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
+      <c r="Q19" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
@@ -2550,13 +2706,14 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="M20" s="6"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -2575,13 +2732,14 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="M21" s="6"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -2606,6 +2764,8 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
@@ -2619,6 +2779,8 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
@@ -2632,10 +2794,12 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
@@ -2643,13 +2807,16 @@
         <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>26</v>
+      <c r="Q27" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
@@ -2657,13 +2824,16 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>215</v>
+      <c r="Q28" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
@@ -2680,7 +2850,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="M30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P30" s="10">
         <v>1</v>
@@ -2692,7 +2862,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="M31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P31" s="10">
         <v>4400</v>
@@ -2704,34 +2874,34 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="M32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P35" s="10">
         <v>1000</v>
@@ -2739,38 +2909,38 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P38" s="10"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
@@ -2778,76 +2948,76 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G16" r:id="rId1" xr:uid="{6D13A649-BDA8-49D8-8ADF-5848C69C358F}"/>
+    <hyperlink ref="H16" r:id="rId1" xr:uid="{6D13A649-BDA8-49D8-8ADF-5848C69C358F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2877,30 +3047,30 @@
   <sheetData>
     <row r="2" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F3" s="2">
         <v>1014114</v>
@@ -2909,7 +3079,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -2917,17 +3087,17 @@
     </row>
     <row r="4" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I4" s="2">
         <v>2</v>
@@ -2935,10 +3105,10 @@
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F5" s="2">
         <v>1014096</v>
@@ -2947,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="2">
         <v>3</v>
@@ -2955,17 +3125,17 @@
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
         <v>2</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" s="2">
         <v>4</v>
@@ -2973,10 +3143,10 @@
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F7" s="2">
         <v>1014113</v>
@@ -2985,7 +3155,7 @@
         <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2">
         <v>5</v>
@@ -2993,17 +3163,17 @@
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8" s="2">
         <v>6</v>
@@ -3011,10 +3181,10 @@
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F9" s="2">
         <v>1014098</v>
@@ -3023,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="2">
         <v>7</v>
@@ -3031,10 +3201,10 @@
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F10" s="2">
         <v>1014099</v>
@@ -3043,7 +3213,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" s="2">
         <v>8</v>
@@ -3051,10 +3221,10 @@
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F11" s="2">
         <v>1014100</v>
@@ -3063,7 +3233,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" s="2">
         <v>9</v>
@@ -3071,10 +3241,10 @@
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -3087,17 +3257,17 @@
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
         <v>13</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I13" s="2">
         <v>11</v>
@@ -3105,10 +3275,10 @@
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F14" s="2">
         <v>1014115</v>
@@ -3117,7 +3287,7 @@
         <v>23</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I14" s="2">
         <v>12</v>
@@ -3125,10 +3295,10 @@
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F15" s="2">
         <v>1014103</v>
@@ -3137,7 +3307,7 @@
         <v>9</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I15" s="2">
         <v>13</v>
@@ -3145,17 +3315,17 @@
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
         <v>12</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" s="2">
         <v>14</v>
@@ -3163,17 +3333,17 @@
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I17" s="2">
         <v>15</v>
@@ -3181,10 +3351,10 @@
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F18" s="2">
         <v>1014116</v>
@@ -3193,7 +3363,7 @@
         <v>22</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I18" s="2">
         <v>16</v>
@@ -3201,17 +3371,17 @@
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
         <v>24</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I19" s="2">
         <v>17</v>
@@ -3219,17 +3389,17 @@
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
         <v>25</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I20" s="2">
         <v>18</v>
@@ -3237,17 +3407,17 @@
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
         <v>11</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I21" s="2">
         <v>19</v>
@@ -3255,17 +3425,17 @@
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
         <v>10</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I22" s="2">
         <v>20</v>
@@ -3273,17 +3443,17 @@
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
         <v>20</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I23" s="2">
         <v>21</v>
@@ -3291,17 +3461,17 @@
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
         <v>21</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I24" s="2">
         <v>22</v>
@@ -3309,10 +3479,10 @@
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F25" s="2">
         <v>1014105</v>
@@ -3321,7 +3491,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I25" s="2">
         <v>23</v>
@@ -3329,10 +3499,10 @@
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D26" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" s="2">
         <v>1014106</v>
@@ -3341,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I26" s="2">
         <v>24</v>
@@ -3349,10 +3519,10 @@
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
@@ -3365,17 +3535,17 @@
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
         <v>19</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I28" s="2">
         <v>26</v>
@@ -3383,17 +3553,17 @@
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
         <v>8</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I29" s="2">
         <v>27</v>
@@ -3401,10 +3571,10 @@
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D30" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F30" s="2">
         <v>1014107</v>
@@ -3413,7 +3583,7 @@
         <v>17</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I30" s="2">
         <v>28</v>
@@ -3421,17 +3591,17 @@
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
         <v>26</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I31" s="2">
         <v>29</v>
@@ -3439,10 +3609,10 @@
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D32" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2">
         <v>1014108</v>
@@ -3451,7 +3621,7 @@
         <v>18</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I32" s="2">
         <v>30</v>
